--- a/MoClo_Setup.xlsx
+++ b/MoClo_Setup.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="555" windowWidth="25155" windowHeight="12105"/>
+    <workbookView xWindow="60" yWindow="555" windowWidth="25155" windowHeight="12105" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MoClo Setup Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Dilutions_PRINT" sheetId="6" r:id="rId2"/>
     <sheet name="Protocol_PRINT" sheetId="1" r:id="rId3"/>
     <sheet name="Comp Cell Calculator" sheetId="11" r:id="rId4"/>
-    <sheet name="Reagent Calculator" sheetId="10" r:id="rId5"/>
+    <sheet name="MoClo Reagent Calculator" sheetId="10" r:id="rId5"/>
+    <sheet name="Colony PCR Calculator" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Protocol_PRINT!$6:$37</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Tube Label</t>
   </si>
@@ -414,6 +415,32 @@
   <si>
     <t>Enter total number of MoClo samples to calculate volume of individual reagents needed:</t>
   </si>
+  <si>
+    <t>Total Number of MoClo Reactions:</t>
+  </si>
+  <si>
+    <t>Total Number of PCR Reactions:</t>
+  </si>
+  <si>
+    <t>2x Taq PCR Mastermix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VF Primer (10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µM)</t>
+    </r>
+  </si>
+  <si>
+    <t>VR Primer (10 µM)</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +451,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,8 +587,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,9 +1517,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1502,30 +1565,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,6 +1591,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2154,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -9114,17 +9165,17 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="N25" s="160" t="s">
+      <c r="N25" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="48" t="s">
@@ -9145,17 +9196,17 @@
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
-      <c r="N26" s="160" t="s">
+      <c r="N26" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="166"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="43" t="s">
@@ -9176,17 +9227,17 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="N27" s="161" t="s">
+      <c r="N27" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="169"/>
+      <c r="U27" s="169"/>
+      <c r="V27" s="169"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E28" s="43" t="s">
@@ -9203,15 +9254,15 @@
       <c r="H28" s="21"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="161"/>
-      <c r="V28" s="161"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="169"/>
+      <c r="V28" s="169"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E29" s="43" t="s">
@@ -9228,15 +9279,15 @@
       <c r="H29" s="21"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
+      <c r="T29" s="169"/>
+      <c r="U29" s="169"/>
+      <c r="V29" s="169"/>
     </row>
     <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="43" t="s">
@@ -9251,11 +9302,11 @@
         <v>2</v>
       </c>
       <c r="H30" s="21"/>
-      <c r="I30" s="175" t="s">
+      <c r="I30" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
       <c r="S30" s="2" t="s">
         <v>13</v>
       </c>
@@ -9273,16 +9324,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="21"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="M31" s="174" t="s">
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="M31" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
       <c r="R31" s="128"/>
       <c r="S31" s="128"/>
     </row>
@@ -9299,20 +9350,20 @@
         <v>2</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="M32" s="162" t="s">
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="M32" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="N32" s="163"/>
+      <c r="N32" s="171"/>
       <c r="O32" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="168" t="s">
+      <c r="P32" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="169"/>
+      <c r="Q32" s="168"/>
     </row>
     <row r="33" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="44" t="s">
@@ -9327,18 +9378,18 @@
         <v>2</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="173"/>
       <c r="O33" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="166" t="s">
+      <c r="P33" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="167"/>
+      <c r="Q33" s="175"/>
     </row>
     <row r="34" spans="5:17" ht="15" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
@@ -9353,17 +9404,17 @@
         <v>2</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
       <c r="N34"/>
       <c r="O34" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="P34" s="168" t="s">
+      <c r="P34" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" s="169"/>
+      <c r="Q34" s="168"/>
     </row>
     <row r="35" spans="5:17" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="47" t="s">
@@ -9387,10 +9438,10 @@
       <c r="O35" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="P35" s="170" t="s">
+      <c r="P35" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="171"/>
+      <c r="Q35" s="161"/>
     </row>
     <row r="36" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="7"/>
@@ -9403,10 +9454,10 @@
       <c r="O36" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P36" s="172" t="s">
+      <c r="P36" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="Q36" s="173"/>
+      <c r="Q36" s="163"/>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I37" s="2"/>
@@ -9414,17 +9465,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N27:V29"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="I30:K34"/>
     <mergeCell ref="N26:V26"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N27:V29"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9436,8 +9487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9485,12 +9536,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9502,7 +9553,7 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="182" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="183"/>
       <c r="D3" s="184"/>
@@ -9549,6 +9600,90 @@
       <c r="D7" s="181"/>
       <c r="E7" s="134">
         <f>2*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="185" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="186"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="180"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="134">
+        <f>5*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="180"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="134">
+        <f>5*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="180"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="134">
+        <f>1*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="180"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="134">
+        <f>1*E3</f>
         <v>0</v>
       </c>
     </row>
